--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2074346.776565217</v>
+        <v>-2076929.808634946</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>114.6473952970551</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>75.45713216103881</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.387592552265558</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>77.69212434149333</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>58.82549813760151</v>
+        <v>40.33126661321072</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609202</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0.6033698498570867</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>85.2418601147845</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>4.792004777349866</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>68.11015198958361</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>163.9892060627504</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>17.30559602544859</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695432</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>25.7319404949728</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>205.4376564928995</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>145.8985436303872</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>221.1801025849732</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>27.02919805176192</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716056</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428152</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149758</v>
+        <v>171.0385136149756</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316663</v>
+        <v>158.4533545316661</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>102.3497179313888</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>44.76793778822323</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253073</v>
+        <v>156.7306717253071</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792624</v>
+        <v>131.5012462792621</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160403</v>
+        <v>72.47236975160378</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014316019</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346831</v>
+        <v>172.2328194346829</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603268</v>
+        <v>208.6119837603265</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222826</v>
+        <v>277.3910078222824</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568665</v>
+        <v>243.3441767568663</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696295</v>
+        <v>277.7295317696293</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220756</v>
+        <v>216.9161888220754</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851333</v>
+        <v>209.791186785133</v>
       </c>
     </row>
     <row r="29">
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261718</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,58 +4304,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943749</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943749</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943749</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
         <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614562</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686091</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.5406302391192</v>
+        <v>609.2899331452388</v>
       </c>
       <c r="C4" t="n">
-        <v>331.5406302391192</v>
+        <v>609.2899331452388</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391192</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391192</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391192</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596506</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
         <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068857</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596444</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181853</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181853</v>
+        <v>831.0565485757128</v>
       </c>
       <c r="S4" t="n">
-        <v>842.4101125439496</v>
+        <v>831.0565485757128</v>
       </c>
       <c r="T4" t="n">
-        <v>620.6434971134756</v>
+        <v>609.2899331452388</v>
       </c>
       <c r="U4" t="n">
-        <v>331.5406302391192</v>
+        <v>609.2899331452388</v>
       </c>
       <c r="V4" t="n">
-        <v>331.5406302391192</v>
+        <v>609.2899331452388</v>
       </c>
       <c r="W4" t="n">
-        <v>331.5406302391192</v>
+        <v>609.2899331452388</v>
       </c>
       <c r="X4" t="n">
-        <v>331.5406302391192</v>
+        <v>609.2899331452388</v>
       </c>
       <c r="Y4" t="n">
-        <v>331.5406302391192</v>
+        <v>609.2899331452388</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.638712032432</v>
+        <v>1616.654488422264</v>
       </c>
       <c r="C5" t="n">
-        <v>1624.638712032432</v>
+        <v>1247.691971481853</v>
       </c>
       <c r="D5" t="n">
-        <v>1266.373013425682</v>
+        <v>1247.691971481853</v>
       </c>
       <c r="E5" t="n">
-        <v>880.5847608274373</v>
+        <v>861.9037188836082</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883009</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539438</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269324</v>
+        <v>2766.859418723277</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008244</v>
+        <v>2393.393660462198</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032432</v>
+        <v>2003.254328486386</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>553.2677753977071</v>
+        <v>699.4849621798493</v>
       </c>
       <c r="C7" t="n">
-        <v>384.3315924698002</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025399</v>
+        <v>920.2775413233794</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025399</v>
+        <v>920.2775413233794</v>
       </c>
       <c r="U7" t="n">
-        <v>639.3706644025399</v>
+        <v>920.2775413233794</v>
       </c>
       <c r="V7" t="n">
-        <v>639.3706644025399</v>
+        <v>920.2775413233794</v>
       </c>
       <c r="W7" t="n">
-        <v>553.2677753977071</v>
+        <v>920.2775413233794</v>
       </c>
       <c r="X7" t="n">
-        <v>553.2677753977071</v>
+        <v>920.2775413233794</v>
       </c>
       <c r="Y7" t="n">
-        <v>553.2677753977071</v>
+        <v>699.4849621798493</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,19 +4799,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445192</v>
+        <v>359.619250712236</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218345</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>665.4108858860666</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>665.4108858860666</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>665.4108858860666</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>665.4108858860666</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W10" t="n">
-        <v>665.4108858860666</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X10" t="n">
-        <v>437.4213349880492</v>
+        <v>359.619250712236</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.6287558445192</v>
+        <v>359.619250712236</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5045,16 +5045,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8178837532263</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232835</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.971224494428</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2238.116390149333</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.873069518444</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.455899481483</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>963.4663485834659</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.466348583466</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656162</v>
+        <v>991.7436897307816</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>822.8075068028749</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>672.6908673905391</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>524.777773808146</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>377.8878263102356</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>210.6917270251157</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2232.545113539342</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2012.943648562283</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1723.868421906481</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1469.183933700594</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1179.766763663634</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>951.7772127656162</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.7772127656162</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557273</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278205</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>408.9258559154848</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330917</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330917</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,16 +5674,16 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279802</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859671</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5732,31 +5732,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.853600740072</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121651</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
         <v>2035.089393279803</v>
@@ -5935,10 +5935,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
         <v>1688.385853854706</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703117</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270441</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.438461104602</v>
+        <v>721.6018753906262</v>
       </c>
       <c r="C28" t="n">
-        <v>503.3845676382723</v>
+        <v>561.5479819242969</v>
       </c>
       <c r="D28" t="n">
-        <v>503.3845676382723</v>
+        <v>458.1644284582476</v>
       </c>
       <c r="E28" t="n">
-        <v>503.3845676382723</v>
+        <v>458.1644284582476</v>
       </c>
       <c r="F28" t="n">
-        <v>458.1644284582484</v>
+        <v>458.1644284582476</v>
       </c>
       <c r="G28" t="n">
-        <v>299.8506186347056</v>
+        <v>299.8506186347051</v>
       </c>
       <c r="H28" t="n">
-        <v>167.021076938481</v>
+        <v>167.0210769384807</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795876</v>
+        <v>182.7582133795877</v>
       </c>
       <c r="K28" t="n">
-        <v>453.153007806418</v>
+        <v>453.1530078064185</v>
       </c>
       <c r="L28" t="n">
-        <v>852.25713388365</v>
+        <v>852.2571338836507</v>
       </c>
       <c r="M28" t="n">
         <v>1282.972368515977</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077277</v>
+        <v>1709.087772077278</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687554</v>
+        <v>2087.322584687555</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162405</v>
+        <v>2388.703572162406</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790596</v>
+        <v>2516.607338790598</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.443924504576</v>
+        <v>2516.607338790598</v>
       </c>
       <c r="S28" t="n">
-        <v>2284.471379621057</v>
+        <v>2342.63479390708</v>
       </c>
       <c r="T28" t="n">
-        <v>2073.752204105575</v>
+        <v>2131.915618391598</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.55926691135</v>
+        <v>1851.722681197373</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.757068167041</v>
+        <v>1605.920482453064</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.222187591657</v>
+        <v>1325.385601877681</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.114926155217</v>
+        <v>1106.278340441241</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.2046364732644</v>
+        <v>894.3680507592884</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979287</v>
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6862,7 +6862,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,31 +6877,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452619</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.043492616109</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,46 +7573,46 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444888</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,46 +7807,46 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>250.6254964739524</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>306.473237911223</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,19 +22708,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>144.2278804659468</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>112.0769009899486</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>40.64330621514889</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>46.69998683092846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-4.082184098851613e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>24.58839950885155</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>35.1277423712574</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038623</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>30.95754073885485</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5862749664504</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194236</v>
+        <v>57.22910392194255</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512508</v>
+        <v>37.47228851986186</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796077</v>
+        <v>137.6404960796074</v>
       </c>
       <c r="F28" t="n">
-        <v>91.8596436677465</v>
+        <v>136.6275814559695</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.58178014315994</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1354122.474481886</v>
+        <v>1354122.474481887</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65808.19547374989</v>
+        <v>65808.19547374986</v>
       </c>
       <c r="C2" t="n">
         <v>82104.17698642836</v>
@@ -26323,10 +26323,10 @@
         <v>80714.6599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900057</v>
       </c>
       <c r="H2" t="n">
         <v>80714.65996900058</v>
@@ -26338,22 +26338,22 @@
         <v>81217.80383555165</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642843</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="N2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.1769864284</v>
       </c>
-      <c r="O2" t="n">
-        <v>82104.17698642834</v>
-      </c>
       <c r="P2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.1769864284</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508468</v>
+        <v>224565.9756508469</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006258</v>
+        <v>12392.94474006228</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.77325356924</v>
+        <v>7034.77325356939</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.9447400626</v>
+        <v>12392.94474006242</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405244</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>17720.18476944061</v>
+        <v>17720.1847694407</v>
       </c>
       <c r="K4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496084</v>
       </c>
       <c r="L4" t="n">
         <v>22817.55530496084</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496085</v>
+        <v>22817.55530496084</v>
       </c>
       <c r="N4" t="n">
+        <v>22817.55530496082</v>
+      </c>
+      <c r="O4" t="n">
+        <v>22817.55530496082</v>
+      </c>
+      <c r="P4" t="n">
         <v>22817.55530496083</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22817.55530496084</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22817.55530496085</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1371455.137804243</v>
+        <v>-1371862.537342059</v>
       </c>
       <c r="C6" t="n">
-        <v>-119426.5076790174</v>
+        <v>-119426.5076790173</v>
       </c>
       <c r="D6" t="n">
-        <v>-119426.5076790174</v>
+        <v>-119426.5076790175</v>
       </c>
       <c r="E6" t="n">
-        <v>-360647.0277041287</v>
+        <v>-360681.7656295648</v>
       </c>
       <c r="F6" t="n">
-        <v>-35234.5658967739</v>
+        <v>-35269.30382220955</v>
       </c>
       <c r="G6" t="n">
-        <v>-35234.56589677384</v>
+        <v>-35269.30382220959</v>
       </c>
       <c r="H6" t="n">
-        <v>-35234.56589677391</v>
+        <v>-35269.30382220959</v>
       </c>
       <c r="I6" t="n">
-        <v>-35234.56589677389</v>
+        <v>-35269.30382220958</v>
       </c>
       <c r="J6" t="n">
-        <v>-262930.1443494608</v>
+        <v>-262952.3036782329</v>
       </c>
       <c r="K6" t="n">
-        <v>-56270.43891251039</v>
+        <v>-56270.43891251014</v>
       </c>
       <c r="L6" t="n">
-        <v>-43877.49417244788</v>
+        <v>-43877.49417244785</v>
       </c>
       <c r="M6" t="n">
-        <v>-128932.5221079595</v>
+        <v>-128932.5221079597</v>
       </c>
       <c r="N6" t="n">
-        <v>-43877.49417244783</v>
+        <v>-43877.49417244785</v>
       </c>
       <c r="O6" t="n">
-        <v>-50912.26742601713</v>
+        <v>-50912.26742601721</v>
       </c>
       <c r="P6" t="n">
-        <v>-56270.43891251046</v>
+        <v>-56270.43891251025</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961536</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507823</v>
+        <v>15.491180925078</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.79346656696155</v>
+        <v>8.793466566961738</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507825</v>
+        <v>15.49118092507803</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961536</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507823</v>
+        <v>15.491180925078</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>348.0505476041099</v>
+        <v>366.5447791285007</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.1656554815848</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>201.2811382218065</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>377.1383652949119</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>259.6421064805513</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28014,19 +28014,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>25.77981926869148</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.4040593635886</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961502</v>
+        <v>8.793466566961749</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="35">
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,16 +31847,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>163.1438255932938</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N15" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,28 +32312,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236526</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319857</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,10 +34235,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,16 +35495,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>20.54758114884936</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N15" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991486</v>
+        <v>89.83994982991511</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765964</v>
+        <v>273.1260549765967</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860929</v>
+        <v>403.1354808860931</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680066</v>
+        <v>435.0658935680069</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568689</v>
+        <v>430.4195995568692</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730069</v>
+        <v>382.0553662730072</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735865</v>
+        <v>304.4252398735867</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668599</v>
+        <v>129.1957238668601</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,10 +37242,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.587454168383</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164546</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37707,16 +37707,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875412</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,13 +38178,13 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980851</v>
